--- a/matlab/HumidityData.xlsx
+++ b/matlab/HumidityData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>00:00:00</t>
   </si>
@@ -31,6 +31,138 @@
   </si>
   <si>
     <t>27:12:57</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>00:00:01</t>
+  </si>
+  <si>
+    <t>00:00:02</t>
+  </si>
+  <si>
+    <t>00:00:03</t>
+  </si>
+  <si>
+    <t>00:00:04</t>
+  </si>
+  <si>
+    <t>00:00:05</t>
+  </si>
+  <si>
+    <t>00:00:06</t>
+  </si>
+  <si>
+    <t>00:00:07</t>
+  </si>
+  <si>
+    <t>00:00:08</t>
+  </si>
+  <si>
+    <t>00:00:09</t>
+  </si>
+  <si>
+    <t>00:00:10</t>
+  </si>
+  <si>
+    <t>00:00:11</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>00:00:01</t>
+  </si>
+  <si>
+    <t>00:00:02</t>
+  </si>
+  <si>
+    <t>00:00:03</t>
+  </si>
+  <si>
+    <t>00:00:04</t>
+  </si>
+  <si>
+    <t>00:00:05</t>
+  </si>
+  <si>
+    <t>00:00:06</t>
+  </si>
+  <si>
+    <t>00:00:07</t>
+  </si>
+  <si>
+    <t>00:00:08</t>
+  </si>
+  <si>
+    <t>00:00:09</t>
+  </si>
+  <si>
+    <t>00:00:10</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>00:00:01</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>00:00:01</t>
+  </si>
+  <si>
+    <t>00:00:02</t>
+  </si>
+  <si>
+    <t>00:00:03</t>
+  </si>
+  <si>
+    <t>00:00:04</t>
+  </si>
+  <si>
+    <t>00:00:05</t>
+  </si>
+  <si>
+    <t>00:00:06</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Voltage</t>
   </si>
 </sst>
 </file>
@@ -76,49 +208,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="true"/>
-    <col min="2" max="2" width="10.28515625" customWidth="true"/>
-    <col min="3" max="3" width="8.28515625" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="8" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
+        <v>40</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="0">
+        <v>65.484848484848484</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1.139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="B3" s="0">
+        <v>65.515151515151516</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1.1379999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
+        <v>41</v>
+      </c>
+      <c r="B4" s="0">
+        <v>65.484848484848484</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1.139</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="0">
+        <v>65.36363636363636</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1.143</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="0">
+        <v>65.454545454545453</v>
+      </c>
+      <c r="C6" s="0">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="0">
+        <v>65.484848484848484</v>
+      </c>
+      <c r="C7" s="0">
+        <v>1.139</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="0">
+        <v>65.545454545454547</v>
+      </c>
+      <c r="C8" s="0">
+        <v>1.137</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="0">
+        <v>65.484848484848484</v>
+      </c>
+      <c r="C9" s="0">
+        <v>1.139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="0">
+        <v>65.303030303030297</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1.145</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="0">
+        <v>60.393939393939391</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1.3069999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="0">
+        <v>66.454545454545453</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1.107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="0">
+        <v>65.515151515151516</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1.1379999999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="0">
+        <v>29.060606060606062</v>
+      </c>
+      <c r="C14" s="0">
+        <v>2.3410000000000002</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="0">
+        <v>27.09090909090909</v>
+      </c>
+      <c r="C15" s="0">
+        <v>2.4060000000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="0">
+        <v>60.696969696969695</v>
+      </c>
+      <c r="C16" s="0">
+        <v>1.2969999999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="0">
+        <v>65.606060606060609</v>
+      </c>
+      <c r="C17" s="0">
+        <v>1.135</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/matlab/HumidityData.xlsx
+++ b/matlab/HumidityData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
   <si>
     <t>00:00:00</t>
   </si>
@@ -157,6 +157,165 @@
   </si>
   <si>
     <t>00:00:06</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>00:00:02</t>
+  </si>
+  <si>
+    <t>00:00:03</t>
+  </si>
+  <si>
+    <t>00:00:04</t>
+  </si>
+  <si>
+    <t>00:00:05</t>
+  </si>
+  <si>
+    <t>00:00:06</t>
+  </si>
+  <si>
+    <t>00:00:07</t>
+  </si>
+  <si>
+    <t>00:00:08</t>
+  </si>
+  <si>
+    <t>00:00:09</t>
+  </si>
+  <si>
+    <t>00:00:10</t>
+  </si>
+  <si>
+    <t>00:00:11</t>
+  </si>
+  <si>
+    <t>00:00:12</t>
+  </si>
+  <si>
+    <t>00:00:13</t>
+  </si>
+  <si>
+    <t>00:00:14</t>
+  </si>
+  <si>
+    <t>00:00:15</t>
+  </si>
+  <si>
+    <t>00:00:16</t>
+  </si>
+  <si>
+    <t>00:00:17</t>
+  </si>
+  <si>
+    <t>00:00:18</t>
+  </si>
+  <si>
+    <t>00:00:19</t>
+  </si>
+  <si>
+    <t>00:00:20</t>
+  </si>
+  <si>
+    <t>00:00:21</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>00:00:01</t>
+  </si>
+  <si>
+    <t>00:00:02</t>
+  </si>
+  <si>
+    <t>00:00:03</t>
+  </si>
+  <si>
+    <t>00:00:04</t>
+  </si>
+  <si>
+    <t>00:00:05</t>
+  </si>
+  <si>
+    <t>00:00:06</t>
+  </si>
+  <si>
+    <t>00:00:07</t>
+  </si>
+  <si>
+    <t>00:00:08</t>
+  </si>
+  <si>
+    <t>00:00:09</t>
+  </si>
+  <si>
+    <t>00:00:10</t>
+  </si>
+  <si>
+    <t>00:00:11</t>
+  </si>
+  <si>
+    <t>00:00:12</t>
+  </si>
+  <si>
+    <t>00:00:13</t>
+  </si>
+  <si>
+    <t>00:00:14</t>
+  </si>
+  <si>
+    <t>00:00:15</t>
+  </si>
+  <si>
+    <t>00:00:16</t>
+  </si>
+  <si>
+    <t>00:00:17</t>
+  </si>
+  <si>
+    <t>00:00:18</t>
+  </si>
+  <si>
+    <t>00:00:19</t>
+  </si>
+  <si>
+    <t>00:00:20</t>
+  </si>
+  <si>
+    <t>00:00:21</t>
+  </si>
+  <si>
+    <t>00:00:22</t>
+  </si>
+  <si>
+    <t>00:00:23</t>
+  </si>
+  <si>
+    <t>00:00:24</t>
+  </si>
+  <si>
+    <t>00:00:25</t>
   </si>
   <si>
     <t>Humidity</t>
@@ -208,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C27"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="true"/>
@@ -218,189 +377,299 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B2" s="0">
-        <v>65.484848484848484</v>
+        <v>68.121212121212125</v>
       </c>
       <c r="C2" s="0">
-        <v>1.139</v>
+        <v>1.052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B3" s="0">
-        <v>65.515151515151516</v>
+        <v>67.878787878787875</v>
       </c>
       <c r="C3" s="0">
-        <v>1.1379999999999999</v>
+        <v>1.0600000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B4" s="0">
-        <v>65.484848484848484</v>
+        <v>67.787878787878782</v>
       </c>
       <c r="C4" s="0">
-        <v>1.139</v>
+        <v>1.0629999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B5" s="0">
-        <v>65.36363636363636</v>
+        <v>67.818181818181813</v>
       </c>
       <c r="C5" s="0">
-        <v>1.143</v>
+        <v>1.0620000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B6" s="0">
-        <v>65.454545454545453</v>
+        <v>67.666666666666671</v>
       </c>
       <c r="C6" s="0">
-        <v>1.1399999999999999</v>
+        <v>1.0669999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B7" s="0">
-        <v>65.484848484848484</v>
+        <v>67.939393939393938</v>
       </c>
       <c r="C7" s="0">
-        <v>1.139</v>
+        <v>1.0580000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B8" s="0">
-        <v>65.545454545454547</v>
+        <v>67.939393939393938</v>
       </c>
       <c r="C8" s="0">
-        <v>1.137</v>
+        <v>1.0580000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B9" s="0">
-        <v>65.484848484848484</v>
+        <v>51.545454545454547</v>
       </c>
       <c r="C9" s="0">
-        <v>1.139</v>
+        <v>1.599</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B10" s="0">
-        <v>65.303030303030297</v>
+        <v>48.939393939393938</v>
       </c>
       <c r="C10" s="0">
-        <v>1.145</v>
+        <v>1.6850000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="B11" s="0">
-        <v>60.393939393939391</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0">
-        <v>1.3069999999999999</v>
+        <v>1.7490000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="B12" s="0">
-        <v>66.454545454545453</v>
+        <v>44.787878787878789</v>
       </c>
       <c r="C12" s="0">
-        <v>1.107</v>
+        <v>1.8220000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B13" s="0">
-        <v>65.515151515151516</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="C13" s="0">
-        <v>1.1379999999999999</v>
+        <v>1.8700000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B14" s="0">
-        <v>29.060606060606062</v>
+        <v>41.81818181818182</v>
       </c>
       <c r="C14" s="0">
-        <v>2.3410000000000002</v>
+        <v>1.9199999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B15" s="0">
-        <v>27.09090909090909</v>
+        <v>40.939393939393938</v>
       </c>
       <c r="C15" s="0">
-        <v>2.4060000000000001</v>
+        <v>1.9490000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B16" s="0">
-        <v>60.696969696969695</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="C16" s="0">
-        <v>1.2969999999999999</v>
+        <v>1.925</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="B17" s="0">
-        <v>65.606060606060609</v>
+        <v>39.363636363636367</v>
       </c>
       <c r="C17" s="0">
-        <v>1.135</v>
+        <v>2.0009999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="0">
+        <v>38.575757575757578</v>
+      </c>
+      <c r="C18" s="0">
+        <v>2.0270000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="0">
+        <v>38.121212121212125</v>
+      </c>
+      <c r="C19" s="0">
+        <v>2.0419999999999998</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="0">
+        <v>37.454545454545453</v>
+      </c>
+      <c r="C20" s="0">
+        <v>2.0640000000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="0">
+        <v>37</v>
+      </c>
+      <c r="C21" s="0">
+        <v>2.0790000000000002</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="0">
+        <v>40.666666666666664</v>
+      </c>
+      <c r="C22" s="0">
+        <v>1.958</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="0">
+        <v>35.272727272727273</v>
+      </c>
+      <c r="C23" s="0">
+        <v>2.1360000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="0">
+        <v>31.90909090909091</v>
+      </c>
+      <c r="C24" s="0">
+        <v>2.2469999999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="0">
+        <v>64.757575757575751</v>
+      </c>
+      <c r="C25" s="0">
+        <v>1.163</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="0">
+        <v>65.090909090909093</v>
+      </c>
+      <c r="C26" s="0">
+        <v>1.1519999999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="0">
+        <v>65.181818181818187</v>
+      </c>
+      <c r="C27" s="0">
+        <v>1.149</v>
       </c>
     </row>
   </sheetData>
